--- a/python/Wave new.xlsx
+++ b/python/Wave new.xlsx
@@ -1104,34 +1104,146 @@
       </c>
     </row>
     <row r="3" customFormat="1" s="16">
-      <c r="A3" s="10" t="n"/>
-      <c r="B3" s="11" t="n"/>
-      <c r="C3" s="11" t="n"/>
-      <c r="D3" s="10" t="n"/>
-      <c r="E3" s="10" t="n"/>
-      <c r="F3" s="32" t="n"/>
-      <c r="G3" s="32" t="n"/>
-      <c r="H3" s="33" t="n"/>
-      <c r="I3" s="10" t="n"/>
-      <c r="J3" s="10" t="n"/>
-      <c r="K3" s="10" t="n"/>
-      <c r="L3" s="10" t="n"/>
-      <c r="M3" s="10" t="n"/>
-      <c r="N3" s="10" t="n"/>
-      <c r="O3" s="10" t="n"/>
-      <c r="P3" s="14" t="n"/>
-      <c r="Q3" s="10" t="n"/>
-      <c r="R3" s="10" t="n"/>
-      <c r="S3" s="10" t="n"/>
-      <c r="T3" s="10" t="n"/>
-      <c r="U3" s="10" t="n"/>
-      <c r="V3" s="10" t="n"/>
-      <c r="W3" s="10" t="n"/>
-      <c r="X3" s="10" t="n"/>
-      <c r="Y3" s="10" t="n"/>
-      <c r="Z3" s="15" t="n"/>
-      <c r="AA3" s="15" t="n"/>
-      <c r="AB3" s="15" t="n"/>
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>xxxxyyyyyy</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>Karapakkam</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+      <c r="D3" s="10" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="E3" s="10" t="inlineStr">
+        <is>
+          <t>600117</t>
+        </is>
+      </c>
+      <c r="F3" s="32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" s="32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" s="33" t="inlineStr">
+        <is>
+          <t>11/26/2025</t>
+        </is>
+      </c>
+      <c r="I3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P3" s="14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Z3" s="15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AA3" s="15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB3" s="15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="4" customFormat="1" s="16">
       <c r="B4" s="17" t="n"/>

--- a/python/Wave new.xlsx
+++ b/python/Wave new.xlsx
@@ -1124,34 +1124,146 @@
       </c>
     </row>
     <row r="3" customFormat="1" s="16">
-      <c r="A3" s="10" t="n"/>
-      <c r="B3" s="11" t="n"/>
-      <c r="C3" s="11" t="n"/>
-      <c r="D3" s="10" t="n"/>
-      <c r="E3" s="10" t="n"/>
-      <c r="F3" s="32" t="n"/>
-      <c r="G3" s="32" t="n"/>
-      <c r="H3" s="33" t="n"/>
-      <c r="I3" s="10" t="n"/>
-      <c r="J3" s="10" t="n"/>
-      <c r="K3" s="10" t="n"/>
-      <c r="L3" s="10" t="n"/>
-      <c r="M3" s="10" t="n"/>
-      <c r="N3" s="10" t="n"/>
-      <c r="O3" s="10" t="n"/>
-      <c r="P3" s="14" t="n"/>
-      <c r="Q3" s="10" t="n"/>
-      <c r="R3" s="10" t="n"/>
-      <c r="S3" s="10" t="n"/>
-      <c r="T3" s="10" t="n"/>
-      <c r="U3" s="10" t="n"/>
-      <c r="V3" s="10" t="n"/>
-      <c r="W3" s="10" t="n"/>
-      <c r="X3" s="10" t="n"/>
-      <c r="Y3" s="10" t="n"/>
-      <c r="Z3" s="15" t="n"/>
-      <c r="AA3" s="15" t="n"/>
-      <c r="AB3" s="15" t="n"/>
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>xxxxyyyyyy</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>Karapakkam</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+      <c r="D3" s="10" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="E3" s="10" t="inlineStr">
+        <is>
+          <t>600117</t>
+        </is>
+      </c>
+      <c r="F3" s="32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" s="32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" s="33" t="inlineStr">
+        <is>
+          <t>11/26/2025</t>
+        </is>
+      </c>
+      <c r="I3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P3" s="14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y3" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Z3" s="15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AA3" s="15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB3" s="15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="4" customFormat="1" s="16">
       <c r="B4" s="17" t="n"/>

--- a/python/Wave new.xlsx
+++ b/python/Wave new.xlsx
@@ -1266,16 +1266,146 @@
       </c>
     </row>
     <row r="4" customFormat="1" s="16">
-      <c r="B4" s="17" t="n"/>
-      <c r="C4" s="17" t="n"/>
-      <c r="F4" s="18" t="n"/>
-      <c r="G4" s="18" t="n"/>
-      <c r="H4" s="19" t="n"/>
-      <c r="P4" s="20" t="n"/>
-      <c r="S4" s="10" t="n"/>
-      <c r="Z4" s="21" t="n"/>
-      <c r="AA4" s="21" t="n"/>
-      <c r="AB4" s="21" t="n"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>xxxxyyyyyy</t>
+        </is>
+      </c>
+      <c r="B4" s="17" t="inlineStr">
+        <is>
+          <t>Karapakkam</t>
+        </is>
+      </c>
+      <c r="C4" s="17" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>600117</t>
+        </is>
+      </c>
+      <c r="F4" s="18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" s="18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" s="19" t="inlineStr">
+        <is>
+          <t>11/26/2025</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P4" s="20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S4" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Z4" s="21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AA4" s="21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB4" s="21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="5" customFormat="1" s="16">
       <c r="A5" s="10" t="n"/>
